--- a/WIP/USER/Mac Van Anh/Features.xlsx
+++ b/WIP/USER/Mac Van Anh/Features.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Users</t>
   </si>
@@ -76,6 +76,132 @@
   </si>
   <si>
     <t>Xóa người dùng</t>
+  </si>
+  <si>
+    <t>UCU001</t>
+  </si>
+  <si>
+    <t>UCU002</t>
+  </si>
+  <si>
+    <t>UCU003</t>
+  </si>
+  <si>
+    <t>UCU004</t>
+  </si>
+  <si>
+    <t>UCU005</t>
+  </si>
+  <si>
+    <t>UCU006</t>
+  </si>
+  <si>
+    <t>UCU007</t>
+  </si>
+  <si>
+    <t>UCA001</t>
+  </si>
+  <si>
+    <t>UCA002</t>
+  </si>
+  <si>
+    <t>UCA003</t>
+  </si>
+  <si>
+    <t>UCA004</t>
+  </si>
+  <si>
+    <t>UCA005</t>
+  </si>
+  <si>
+    <t>UCA006</t>
+  </si>
+  <si>
+    <t>UCA007</t>
+  </si>
+  <si>
+    <t>UCA008</t>
+  </si>
+  <si>
+    <t>UCA009</t>
+  </si>
+  <si>
+    <t>UCA010</t>
+  </si>
+  <si>
+    <t>UCA011</t>
+  </si>
+  <si>
+    <t>UCA012</t>
+  </si>
+  <si>
+    <t>UCA013</t>
+  </si>
+  <si>
+    <t>Use Case ID</t>
+  </si>
+  <si>
+    <t>Use Case Name</t>
+  </si>
+  <si>
+    <t>User login to website</t>
+  </si>
+  <si>
+    <t>User logout website</t>
+  </si>
+  <si>
+    <t>User select contest</t>
+  </si>
+  <si>
+    <t>User select question</t>
+  </si>
+  <si>
+    <t>User submit output file</t>
+  </si>
+  <si>
+    <t>Return question point after user submit output</t>
+  </si>
+  <si>
+    <t>User view score table</t>
+  </si>
+  <si>
+    <t>Admin login to system</t>
+  </si>
+  <si>
+    <t>Admin logout system</t>
+  </si>
+  <si>
+    <t>Admin create a contest</t>
+  </si>
+  <si>
+    <t>Admin update contest</t>
+  </si>
+  <si>
+    <t>Admin delete contest</t>
+  </si>
+  <si>
+    <t>Admin create a question</t>
+  </si>
+  <si>
+    <t>Admin update a question</t>
+  </si>
+  <si>
+    <t>Admin delete a question</t>
+  </si>
+  <si>
+    <t>Admin select some question to contest</t>
+  </si>
+  <si>
+    <t>Admin send input and output question</t>
+  </si>
+  <si>
+    <t>Admin add a user</t>
+  </si>
+  <si>
+    <t>Admin update information for a user</t>
+  </si>
+  <si>
+    <t>Admin delete a user</t>
   </si>
 </sst>
 </file>
@@ -407,122 +533,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="C8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:5">
       <c r="C12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="C13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="C15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="C16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="3:3">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
       <c r="C17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:3">
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="3:3">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="3:3">
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
       <c r="C23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24" t="s">
         <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/USER/Mac Van Anh/Features.xlsx
+++ b/WIP/USER/Mac Van Anh/Features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Users</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Admin delete a user</t>
+  </si>
+  <si>
+    <t>AnhMV</t>
+  </si>
+  <si>
+    <t>AnhPV</t>
+  </si>
+  <si>
+    <t>TongTB</t>
   </si>
 </sst>
 </file>
@@ -237,8 +246,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E24"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C3" sqref="C3:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -547,7 +559,7 @@
     <col min="5" max="5" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -557,8 +569,11 @@
       <c r="E2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -568,8 +583,9 @@
       <c r="E3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -579,8 +595,9 @@
       <c r="E4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -590,8 +607,9 @@
       <c r="E5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -601,8 +619,9 @@
       <c r="E6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -612,8 +631,9 @@
       <c r="E7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -623,8 +643,9 @@
       <c r="E8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -634,13 +655,14 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:6">
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -650,8 +672,11 @@
       <c r="E12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="F12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -661,8 +686,9 @@
       <c r="E13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -672,8 +698,9 @@
       <c r="E14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -683,8 +710,9 @@
       <c r="E15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -694,8 +722,9 @@
       <c r="E16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>10</v>
       </c>
@@ -705,8 +734,11 @@
       <c r="E17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="3:5">
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -716,8 +748,9 @@
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -727,8 +760,9 @@
       <c r="E19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -738,8 +772,9 @@
       <c r="E20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="3:5">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>12</v>
       </c>
@@ -749,8 +784,9 @@
       <c r="E21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="3:5">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" t="s">
         <v>17</v>
       </c>
@@ -760,8 +796,9 @@
       <c r="E22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="3:5">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" t="s">
         <v>18</v>
       </c>
@@ -771,8 +808,9 @@
       <c r="E23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -782,8 +820,14 @@
       <c r="E24" t="s">
         <v>61</v>
       </c>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="F17:F24"/>
+    <mergeCell ref="F12:F16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
